--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,7 +1117,18 @@
       <c r="B62" t="n">
         <v>1.656273391974874</v>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>1.425652025348263</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.005377199395488</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,7 +1128,18 @@
       <c r="B63" t="n">
         <v>1.005377199395488</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>0.8937387413304106</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01956563262086869</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,7 +1139,18 @@
       <c r="B64" t="n">
         <v>0.01956563262086869</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>0.4403495930998495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2961059472831908</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1150,18 @@
       <c r="B65" t="n">
         <v>0.2961059472831908</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>0.2653243602510051</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4803015008489552</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,7 +1161,18 @@
       <c r="B66" t="n">
         <v>0.4803015008489552</v>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>0.3786781487265162</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3596269980474019</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,7 +1172,18 @@
       <c r="B67" t="n">
         <v>0.3596269980474019</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>0.8334820776481658</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.66051773404814</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,7 +1183,18 @@
       <c r="B68" t="n">
         <v>1.66051773404814</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>0.8394688535867342</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4982618286646597</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,7 +1194,18 @@
       <c r="B69" t="n">
         <v>0.4982618286646597</v>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>1.008509135378708</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8667478434233231</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,7 +1205,18 @@
       <c r="B70" t="n">
         <v>0.8667478434233231</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>0.6718162845935561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6504391816926848</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -502,7 +502,7 @@
         <v>0.4021128844317434</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2489211158843924</v>
+        <v>-0.2489211158843925</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.686560632635721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5187816627813985</v>
+        <v>0.5187816627813984</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.4676714712767306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5721245514002403</v>
+        <v>0.5721245514002401</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5621415502882688</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7711161153747644</v>
+        <v>0.7711161153747641</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>1.283535324559293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.475401014089257</v>
+        <v>0.4754010140892567</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>-0.4194738325797915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2386406492422233</v>
+        <v>0.238640649242223</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>-0.1481395442528323</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1289446107771084</v>
+        <v>-0.1289446107771086</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.1807795445012979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06208650835362515</v>
+        <v>0.0620865083536249</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.1536195248124091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03946747062446444</v>
+        <v>0.03946747062446419</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>-0.2159966574403144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1613185106967664</v>
+        <v>0.1613185106967661</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5463326647182037</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03619093606629866</v>
+        <v>-0.0361909360662989</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>-0.438908815476786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09165696147384211</v>
+        <v>0.09165696147384188</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.1675470351801079</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4064897735342148</v>
+        <v>-0.4064897735342152</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>-0.9481075403059673</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02824212902486661</v>
+        <v>0.0282421290248663</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.8652868922004584</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0958939124372627</v>
+        <v>0.0958939124372624</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.3705023854172961</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6214576153687559</v>
+        <v>0.6214576153687555</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.6285835684885123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6290945277381975</v>
+        <v>0.6290945277381972</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.8881976293087831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8641343686896531</v>
+        <v>0.8641343686896529</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1.075621908271663</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5782448425821941</v>
+        <v>0.5782448425821939</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>-0.2290850098338648</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5838277856104891</v>
+        <v>0.583827785610489</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.9049464583936684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0409780239974468</v>
+        <v>0.04097802399744662</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>-0.5529273765674638</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4750395928805813</v>
+        <v>0.4750395928805811</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.073099696815539</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3455942321197699</v>
+        <v>0.3455942321197698</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.5166103761112341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6378781136471017</v>
+        <v>0.6378781136471016</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.3239242680145316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127609185234108</v>
+        <v>0.1276091852341079</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>-0.4577070884234423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02293723452843677</v>
+        <v>0.02293723452843663</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.2025945239942204</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3022285749968718</v>
+        <v>-0.302228574996872</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>-0.6515731605613942</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4958483308741348</v>
+        <v>-0.495848330874135</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>-1.038566356055231</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4654460021160405</v>
+        <v>-0.4654460021160406</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.2938015102685035</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.276165297512776</v>
+        <v>-0.2761652975127761</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>-0.08373104675160085</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3522933029376183</v>
+        <v>0.3522933029376182</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.8468094452959518</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2429553966538197</v>
+        <v>0.2429553966538196</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>-0.03421220858289237</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1380638593695356</v>
+        <v>-0.1380638593695357</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>-1.226788814821667</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.6245186097668186</v>
+        <v>-0.6245186097668188</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>-0.6125548058958975</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6124145261794489</v>
+        <v>-0.612414526179449</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.002100042179216811</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.4603903751809492</v>
+        <v>-0.4603903751809493</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>-0.7707163618261674</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5722412866509415</v>
+        <v>-0.5722412866509416</v>
       </c>
     </row>
     <row r="43">
@@ -942,7 +942,7 @@
         <v>-1.27673063099011</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.7370459871482414</v>
+        <v>-0.7370459871482412</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>-0.5383530563878746</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9335112330492102</v>
+        <v>-0.93351123304921</v>
       </c>
     </row>
     <row r="48">
@@ -1019,7 +1019,7 @@
         <v>0.07560151845523121</v>
       </c>
       <c r="C53" t="n">
-        <v>0.007729902206751293</v>
+        <v>0.007729902206751312</v>
       </c>
     </row>
     <row r="54">
@@ -1041,7 +1041,7 @@
         <v>-0.8663741316588643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001136741349844858</v>
+        <v>0.001136741349844854</v>
       </c>
     </row>
     <row r="56">
@@ -1063,7 +1063,7 @@
         <v>1.009299601653969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8209336846071289</v>
+        <v>0.8209336846071288</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.9858299808907625</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8026034388737727</v>
+        <v>0.8026034388737725</v>
       </c>
     </row>
     <row r="59">
@@ -1107,7 +1107,7 @@
         <v>1.615305484674425</v>
       </c>
       <c r="C61" t="n">
-        <v>1.363188931638582</v>
+        <v>1.363188931638581</v>
       </c>
     </row>
     <row r="62">
@@ -1129,7 +1129,7 @@
         <v>1.005377199395488</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8937387413304106</v>
+        <v>0.8937387413304104</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.01956563262086869</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4403495930998495</v>
+        <v>0.4403495930998493</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.2961059472831908</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2653243602510051</v>
+        <v>0.265324360251005</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.4803015008489552</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3786781487265162</v>
+        <v>0.3786781487265161</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.3596269980474019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8334820776481658</v>
+        <v>0.8334820776481657</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1.66051773404814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8394688535867342</v>
+        <v>0.839468853586734</v>
       </c>
     </row>
     <row r="69">
@@ -1206,7 +1206,7 @@
         <v>0.8667478434233231</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6718162845935561</v>
+        <v>0.6718162845935559</v>
       </c>
     </row>
     <row r="71">

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,7 +1216,18 @@
       <c r="B71" t="n">
         <v>0.6504391816926848</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>0.8857391436296588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.140030405772968</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,7 +1227,18 @@
       <c r="B72" t="n">
         <v>1.140030405772968</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>1.032792218796245</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.307907068923083</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,7 +1238,18 @@
       <c r="B73" t="n">
         <v>1.307907068923083</v>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>0.9611015332004618</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4353671249053346</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,7 +1249,18 @@
       <c r="B74" t="n">
         <v>0.4353671249053346</v>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>0.8179456713292345</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7105628201592864</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,7 +1260,18 @@
       <c r="B75" t="n">
         <v>0.7105628201592864</v>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>0.8450299537128577</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.389159916073952</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1271,18 @@
       <c r="B76" t="n">
         <v>1.389159916073952</v>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>1.411121863472151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.133642854183217</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,7 +1282,18 @@
       <c r="B77" t="n">
         <v>2.133642854183217</v>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>1.80349978887186</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.887696596358412</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1293,18 @@
       <c r="B78" t="n">
         <v>1.887696596358412</v>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>2.086944949157312</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.239495396930306</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,7 +1304,18 @@
       <c r="B79" t="n">
         <v>2.239495396930306</v>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>1.686249374103274</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9315561290211047</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,7 +1315,18 @@
       <c r="B80" t="n">
         <v>0.9315561290211047</v>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>1.372157135327208</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9454198800302142</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,7 +1326,18 @@
       <c r="B81" t="n">
         <v>0.9454198800302142</v>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>1.2122799611601</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.759863874428982</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,7 +1337,18 @@
       <c r="B82" t="n">
         <v>1.759863874428982</v>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>1.475211983474808</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.720352195965229</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,7 +1348,18 @@
       <c r="B83" t="n">
         <v>1.720352195965229</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>1.282448168717223</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3671284357574585</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1359,7 +1359,18 @@
       <c r="B84" t="n">
         <v>0.3671284357574585</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1.336728177382838</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.922703900425827</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,7 +1370,18 @@
       <c r="B85" t="n">
         <v>1.922703900425827</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>1.158842131556626</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.186694058486594</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,7 +1381,18 @@
       <c r="B86" t="n">
         <v>1.186694058486594</v>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>1.343514159508719</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9211445196137368</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -457,7 +456,7 @@
         <v>42370</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.912529542536014</v>
+        <v>-1.912529542535907</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -466,10 +465,10 @@
         <v>42401</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.774301233403266</v>
+        <v>-1.774301233403314</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.362892922998772</v>
+        <v>-1.362892922998792</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +476,7 @@
         <v>42430</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4018479930570353</v>
+        <v>-0.401847993057155</v>
       </c>
       <c r="C4" t="n">
         <v>-1.337195363726981</v>
@@ -488,10 +487,10 @@
         <v>42461</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.835436864720642</v>
+        <v>-1.835436864720475</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6117239911153112</v>
+        <v>-0.6117239911153547</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +498,10 @@
         <v>42491</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4021128844317434</v>
+        <v>0.4021128844315656</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2489211158843925</v>
+        <v>-0.2489211158845819</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +509,10 @@
         <v>42522</v>
       </c>
       <c r="B7" t="n">
-        <v>0.686560632635721</v>
+        <v>0.6865606326351634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5187816627813984</v>
+        <v>0.5187816627812537</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +520,10 @@
         <v>42552</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4676714712767306</v>
+        <v>0.4676714712770321</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5721245514002401</v>
+        <v>0.572124551400179</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +531,10 @@
         <v>42583</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5621415502882688</v>
+        <v>0.5621415502883415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7711161153747641</v>
+        <v>0.771116115374979</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +542,10 @@
         <v>42614</v>
       </c>
       <c r="B10" t="n">
-        <v>1.283535324559293</v>
+        <v>1.283535324559564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4754010140892567</v>
+        <v>0.4754010140893712</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +553,10 @@
         <v>42644</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4194738325797915</v>
+        <v>-0.4194738325797916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238640649242223</v>
+        <v>0.2386406492422645</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +564,10 @@
         <v>42675</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1481395442528323</v>
+        <v>-0.1481395442529787</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1289446107771086</v>
+        <v>-0.1289446107771186</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +575,10 @@
         <v>42705</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1807795445012979</v>
+        <v>0.1807795445014144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0620865083536249</v>
+        <v>0.06208650835365051</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +586,10 @@
         <v>42736</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1536195248124091</v>
+        <v>0.1536195248125159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03946747062446419</v>
+        <v>0.03946747062452265</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +597,10 @@
         <v>42767</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2159966574403144</v>
+        <v>-0.2159966574403623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1613185106967661</v>
+        <v>0.1613185106967458</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +608,10 @@
         <v>42795</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5463326647182037</v>
+        <v>0.5463326647180839</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0361909360662989</v>
+        <v>-0.03619093606629911</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +619,10 @@
         <v>42826</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.438908815476786</v>
+        <v>-0.4389088154766189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09165696147384188</v>
+        <v>0.09165696147379838</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +630,10 @@
         <v>42856</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1675470351801079</v>
+        <v>0.1675470351799301</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4064897735342152</v>
+        <v>-0.4064897735344046</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +641,10 @@
         <v>42887</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.9481075403059673</v>
+        <v>-0.9481075403065249</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0282421290248663</v>
+        <v>0.02824212902472178</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +652,10 @@
         <v>42917</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8652868922004584</v>
+        <v>0.86528689220076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0958939124372624</v>
+        <v>0.09589391243720131</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +663,10 @@
         <v>42948</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3705023854172961</v>
+        <v>0.3705023854173687</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6214576153687555</v>
+        <v>0.6214576153689707</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +674,10 @@
         <v>42979</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6285835684885123</v>
+        <v>0.6285835684887831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6290945277381972</v>
+        <v>0.6290945277383116</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +685,10 @@
         <v>43009</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8881976293087831</v>
+        <v>0.8881976293087832</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8641343686896529</v>
+        <v>0.8641343686896944</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +696,10 @@
         <v>43040</v>
       </c>
       <c r="B24" t="n">
-        <v>1.075621908271663</v>
+        <v>1.075621908271517</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5782448425821939</v>
+        <v>0.5782448425821839</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +707,10 @@
         <v>43070</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2290850098338648</v>
+        <v>-0.2290850098337483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.583827785610489</v>
+        <v>0.5838277856105146</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +718,10 @@
         <v>43101</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9049464583936684</v>
+        <v>0.9049464583937752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04097802399744662</v>
+        <v>0.04097802399750505</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +729,10 @@
         <v>43132</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5529273765674638</v>
+        <v>-0.5529273765675117</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4750395928805811</v>
+        <v>0.4750395928805609</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +740,10 @@
         <v>43160</v>
       </c>
       <c r="B28" t="n">
-        <v>1.073099696815539</v>
+        <v>1.073099696815419</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3455942321197698</v>
+        <v>0.3455942321197694</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +751,10 @@
         <v>43191</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5166103761112341</v>
+        <v>0.5166103761114011</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6378781136471016</v>
+        <v>0.6378781136470578</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +762,10 @@
         <v>43221</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3239242680145316</v>
+        <v>0.3239242680143538</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1276091852341079</v>
+        <v>0.1276091852339184</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +773,10 @@
         <v>43252</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4577070884234423</v>
+        <v>-0.4577070884239998</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02293723452843663</v>
+        <v>0.02293723452829191</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +784,10 @@
         <v>43282</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2025945239942204</v>
+        <v>0.2025945239945218</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.302228574996872</v>
+        <v>-0.3022285749969332</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +795,10 @@
         <v>43313</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.6515731605613942</v>
+        <v>-0.6515731605613216</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.495848330874135</v>
+        <v>-0.4958483308739201</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +806,10 @@
         <v>43344</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.038566356055231</v>
+        <v>-1.038566356054961</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4654460021160406</v>
+        <v>-0.4654460021159261</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +820,7 @@
         <v>0.2938015102685035</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2761652975127761</v>
+        <v>-0.2761652975127347</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +828,10 @@
         <v>43405</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.08373104675160085</v>
+        <v>-0.08373104675174731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3522933029376182</v>
+        <v>0.3522933029376082</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +839,10 @@
         <v>43435</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8468094452959518</v>
+        <v>0.8468094452960684</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2429553966538196</v>
+        <v>0.2429553966538452</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +850,10 @@
         <v>43466</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03421220858289237</v>
+        <v>-0.0342122085827856</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1380638593695357</v>
+        <v>-0.1380638593694773</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +861,10 @@
         <v>43497</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.226788814821667</v>
+        <v>-1.226788814821715</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.6245186097668188</v>
+        <v>-0.624518609766839</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +872,10 @@
         <v>43525</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6125548058958975</v>
+        <v>-0.6125548058960172</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.612414526179449</v>
+        <v>-0.6124145261794492</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +883,10 @@
         <v>43556</v>
       </c>
       <c r="B41" t="n">
-        <v>0.002100042179216811</v>
+        <v>0.002100042179383934</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.4603903751809493</v>
+        <v>-0.4603903751809928</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +894,10 @@
         <v>43586</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.7707163618261674</v>
+        <v>-0.7707163618263452</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5722412866509416</v>
+        <v>-0.5722412866511311</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +905,10 @@
         <v>43617</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.9481075403058744</v>
+        <v>-0.948107540306432</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.7483969943882854</v>
+        <v>-0.7483969943884302</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +916,10 @@
         <v>43647</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.5263670810328147</v>
+        <v>-0.5263670810325135</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.6235096318018095</v>
+        <v>-0.6235096318018709</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +927,10 @@
         <v>43678</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3960542740667398</v>
+        <v>-0.3960542740666672</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.7330506620298881</v>
+        <v>-0.7330506620296733</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +938,10 @@
         <v>43709</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.27673063099011</v>
+        <v>-1.276730630989839</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.7370459871482412</v>
+        <v>-0.7370459871481269</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +952,7 @@
         <v>-0.5383530563878746</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.93351123304921</v>
+        <v>-0.9335112330491687</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +960,10 @@
         <v>43770</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.9854500117696463</v>
+        <v>-0.9854500117697927</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.7209175441088688</v>
+        <v>-0.7209175441088789</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +971,10 @@
         <v>43800</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6389495641690857</v>
+        <v>-0.6389495641689693</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.4902600170421254</v>
+        <v>-0.4902600170420998</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +982,10 @@
         <v>43831</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1536195248123557</v>
+        <v>0.1536195248124625</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2337755655990147</v>
+        <v>-0.2337755655989564</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +993,10 @@
         <v>43862</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2159966574403144</v>
+        <v>-0.2159966574403623</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1723006096315598</v>
+        <v>-0.1723006096315801</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1004,10 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.4545246962667209</v>
+        <v>-0.4545246962668406</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1983066117506013</v>
+        <v>-0.1983066117506016</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1015,10 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07560151845523121</v>
+        <v>0.07560151845539834</v>
       </c>
       <c r="C53" t="n">
-        <v>0.007729902206751312</v>
+        <v>0.007729902206707773</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1026,10 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4021128844317434</v>
+        <v>0.4021128844315656</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1295532429239632</v>
+        <v>-0.1295532429241526</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1037,10 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.8663741316588643</v>
+        <v>-0.8663741316594219</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001136741349844854</v>
+        <v>0.001136741349700191</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1048,10 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4676714712766553</v>
+        <v>0.4676714712769568</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2035323137572533</v>
+        <v>0.2035323137571921</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1059,10 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>1.009299601653969</v>
+        <v>1.009299601654041</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8209336846071288</v>
+        <v>0.8209336846073437</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1070,10 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9858299808907625</v>
+        <v>0.9858299808910331</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8026034388737725</v>
+        <v>0.802603438873887</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1084,7 @@
         <v>0.4126807340765865</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7388328777445979</v>
+        <v>0.7388328777446392</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1092,10 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8179879182664446</v>
+        <v>0.8179879182662981</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9486580456724857</v>
+        <v>0.9486580456724756</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1103,10 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>1.615305484674425</v>
+        <v>1.615305484674542</v>
       </c>
       <c r="C61" t="n">
-        <v>1.363188931638581</v>
+        <v>1.363188931638607</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1114,10 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>1.656273391974874</v>
+        <v>1.656273391974981</v>
       </c>
       <c r="C62" t="n">
-        <v>1.425652025348263</v>
+        <v>1.425652025348321</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1125,10 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>1.005377199395488</v>
+        <v>1.00537719939544</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8937387413304104</v>
+        <v>0.89373874133039</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1136,10 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01956563262086869</v>
+        <v>0.01956563262074892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4403495930998493</v>
+        <v>0.4403495930998491</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1147,10 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2961059472831908</v>
+        <v>0.296105947283358</v>
       </c>
       <c r="C65" t="n">
-        <v>0.265324360251005</v>
+        <v>0.2653243602509615</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1158,10 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4803015008489552</v>
+        <v>0.4803015008487774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3786781487265161</v>
+        <v>0.3786781487263266</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1169,10 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3596269980474019</v>
+        <v>0.3596269980468443</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8334820776481657</v>
+        <v>0.8334820776480213</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1180,10 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>1.66051773404814</v>
+        <v>1.660517734048442</v>
       </c>
       <c r="C68" t="n">
-        <v>0.839468853586734</v>
+        <v>0.8394688535866729</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1191,10 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4982618286646597</v>
+        <v>0.4982618286647323</v>
       </c>
       <c r="C69" t="n">
-        <v>1.008509135378708</v>
+        <v>1.008509135378923</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1202,10 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8667478434233231</v>
+        <v>0.8667478434235939</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6718162845935559</v>
+        <v>0.6718162845936705</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1213,10 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6504391816926848</v>
+        <v>0.6504391816926849</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8857391436296588</v>
+        <v>0.8857391436297002</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1224,10 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>1.140030405772968</v>
+        <v>1.140030405772821</v>
       </c>
       <c r="C72" t="n">
-        <v>1.032792218796245</v>
+        <v>1.032792218796235</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1235,10 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>1.307907068923083</v>
+        <v>1.307907068923199</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9611015332004618</v>
+        <v>0.9611015332004874</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1246,10 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4353671249053346</v>
+        <v>0.4353671249054414</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8179456713292345</v>
+        <v>0.8179456713292931</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1257,10 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7105628201592864</v>
+        <v>0.7105628201592386</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8450299537128577</v>
+        <v>0.8450299537128373</v>
       </c>
     </row>
     <row r="76">
@@ -1269,7 +1268,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>1.389159916073952</v>
+        <v>1.389159916073832</v>
       </c>
       <c r="C76" t="n">
         <v>1.411121863472151</v>
@@ -1280,10 +1279,10 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>2.133642854183217</v>
+        <v>2.133642854183384</v>
       </c>
       <c r="C77" t="n">
-        <v>1.80349978887186</v>
+        <v>1.803499788871817</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1290,10 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>1.887696596358412</v>
+        <v>1.887696596358235</v>
       </c>
       <c r="C78" t="n">
-        <v>2.086944949157312</v>
+        <v>2.086944949157123</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1301,10 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>2.239495396930306</v>
+        <v>2.239495396929749</v>
       </c>
       <c r="C79" t="n">
-        <v>1.686249374103274</v>
+        <v>1.68624937410313</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1312,10 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9315561290211047</v>
+        <v>0.9315561290214064</v>
       </c>
       <c r="C80" t="n">
-        <v>1.372157135327208</v>
+        <v>1.372157135327147</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1323,10 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9454198800302142</v>
+        <v>0.9454198800302868</v>
       </c>
       <c r="C81" t="n">
-        <v>1.2122799611601</v>
+        <v>1.212279961160315</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1334,10 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>1.759863874428982</v>
+        <v>1.759863874429253</v>
       </c>
       <c r="C82" t="n">
-        <v>1.475211983474808</v>
+        <v>1.475211983474923</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1348,7 @@
         <v>1.720352195965229</v>
       </c>
       <c r="C83" t="n">
-        <v>1.282448168717223</v>
+        <v>1.282448168717265</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1356,10 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3671284357574585</v>
+        <v>0.367128435757312</v>
       </c>
       <c r="C84" t="n">
-        <v>1.336728177382838</v>
+        <v>1.336728177382828</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1367,10 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>1.922703900425827</v>
+        <v>1.922703900425943</v>
       </c>
       <c r="C85" t="n">
-        <v>1.158842131556626</v>
+        <v>1.158842131556652</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1378,10 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>1.186694058486594</v>
+        <v>1.186694058486701</v>
       </c>
       <c r="C86" t="n">
-        <v>1.343514159508719</v>
+        <v>1.343514159508778</v>
       </c>
     </row>
     <row r="87">
@@ -1390,7 +1389,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9211445196137368</v>
+        <v>0.9211445196136889</v>
       </c>
       <c r="C87" t="inlineStr"/>
     </row>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,7 +1391,18 @@
       <c r="B87" t="n">
         <v>0.9211445196136889</v>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>0.6564580336973207</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.1384644770084276</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,7 +1402,18 @@
       <c r="B88" t="n">
         <v>-0.1384644770084276</v>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>0.3105943457788913</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1491029947314127</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,18 @@
       <c r="B89" t="n">
         <v>0.1491029947314127</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>-0.5661137470365748</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-1.708979758832709</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,7 +1424,18 @@
       <c r="B90" t="n">
         <v>-1.708979758832709</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>-0.4818166639985562</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1144267721056283</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,7 +1435,18 @@
       <c r="B91" t="n">
         <v>0.1144267721056283</v>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>-0.6627938647061006</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.3938286073912207</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1446,18 @@
       <c r="B92" t="n">
         <v>-0.3938286073912207</v>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>-0.5019641634866591</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.226490655174385</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,7 +1457,18 @@
       <c r="B93" t="n">
         <v>-1.226490655174385</v>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>-1.005377343674272</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-1.395812768457211</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,7 +1468,18 @@
       <c r="B94" t="n">
         <v>-1.395812768457211</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>-1.093178567942495</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.65723228019589</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +1479,18 @@
       <c r="B95" t="n">
         <v>-0.65723228019589</v>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>-0.9913621876405539</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.9210415142685614</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,7 +1490,18 @@
       <c r="B96" t="n">
         <v>-0.9210415142685614</v>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>-0.6366083142940065</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.3315511484175681</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,7 +1501,18 @@
       <c r="B97" t="n">
         <v>-0.3315511484175681</v>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>-0.2880611570431755</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3884091915566027</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/niwa_soi/data/niwa-soi-latest.xlsx
+++ b/niwa_soi/data/niwa-soi-latest.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,18 @@
       <c r="B98" t="n">
         <v>0.3884091915566027</v>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>-0.3899769238942426</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.226788814821762</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
